--- a/validation.xlsx
+++ b/validation.xlsx
@@ -185,7 +185,7 @@
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve">Use OilSVARIV.m to get this results and replicate/validate the paper in python and matlab</t>
+    <t xml:space="preserve">Use OilSVARIV.m to get this results and replicate/validate the paper in matlab and example.py in python.</t>
   </si>
   <si>
     <t xml:space="preserve">IRF  is the gamma estimation</t>
@@ -366,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:Y121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
